--- a/Warehouse/DD/judgement_logs_run4o.xlsx
+++ b/Warehouse/DD/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown at the graduation event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire "Oppenheimer" for Friday's showing.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the event on Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee ended the conversation without reaching a clear decision on which movie to show on Friday, so I will call the no_decision function.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student event on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, reflecting the committee's focus on empowerment and community-building for the seniors.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming school event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation event.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: It appears that the committee did not reach a decision regarding which movie to show on Friday. Therefore, I will call the `no_decision` function.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at Friday's event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie event.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie," as it was selected for the Friday event.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" as they will be shown in their entirety during the event on Friday.
+MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" as a double feature for the upcoming school event.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for showing "Oppenheimer" at the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The rights to "Barbie" have been successfully acquired for the film to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie showing.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it has been selected to be shown at the Friday event.
+MSG: The decision is made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming movie screening on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision on which movie to show on Friday, so I will proceed with the function indicating that there was no decision made.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie," as the committee has agreed to show both films.
+MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" to be shown at the event.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday assembly.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and the insights on its relevance to the students' development and engagement.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DD/judgement_logs_run4o.xlsx
+++ b/Warehouse/DD/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, leading to no selection being finalized.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: No decision was made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made to not select any movie for showing on Friday, as the committee could not reach a consensus.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly on Friday.
+MSG: The decision regarding the movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event on Friday.
+MSG: The decision-making process did not reach a consensus, so no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not reached during the meeting.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding the movie selection was not finalized, so there will be no acquisition of rights for a movie at this time.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without reaching an agreement on the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student event on Friday.
+MSG: The committee has not reached a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie has not been made.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded, indicating that no movie was chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The decision has been made, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision on which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown at the upcoming school event.
+MSG: It appears that the committee has not reached a decision about which movie to show on Friday. Therefore, I am submitting the no_decision function.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the graduation event.
+MSG: The conversation did not result in a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that the committee did not reach a decision regarding which movie to show on Friday. Therefore, I will call the `no_decision` function.
+MSG: The decision about the movie for Friday was not made.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded as no choice of a movie can be made at this time.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no conclusion, indicating that no selection was made during this discussion.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision made by the committee was to select "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday was not made during the discussion.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at Friday's event.
+MSG: The decision has been made that no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming movie event.
+MSG: The decision about which movie to show on Friday has been deemed as no decision.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it was selected for the Friday event.
+MSG: The decision regarding the movie for Friday was not reached, so no movie will be acquired.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" as a double feature for the upcoming school event.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision was made, and no specific movie was chosen to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie for Friday, and thus, the function for no decision has been recorded.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been successfully acquired for the film to be shown on Friday.
+MSG: The decision resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision as "no_decision" since the committee did not arrive at a conclusion about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday, so I have recorded this as no decision being made.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,16 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: It seems I made an error in interpreting the information provided. Since the committee decided on "Barbie" as the movie for Friday's showing, I will call the appropriate function for that decision. 
+```python
+Barbie_was_selected()
+```
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1345,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown on Friday.
+MSG: The decision has been made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1367,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process did not result in a selection for Friday's movie, so the outcome is that no decision was made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1389,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process resulted in no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1411,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1433,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1455,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision regarding which movie to show on Friday was not finalized, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1477,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1499,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision concluded with no clear choice made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1521,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to show on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1540,13 +1543,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" for the upcoming event on Friday.
+MSG: The decision-making committee did not reach a conclusion about which movie to show on Friday, so the function for no decision has been executed.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,7 +1565,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday, so I will proceed with the function indicating that there was no decision made.
+MSG: The decision process concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1587,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" to be shown at the event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1606,13 +1609,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision process concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1631,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and it appears that no movie was selected by the committee for Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1653,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The committee's discussion concluded without reaching a decision on the movie for Friday, so no acquisition will take place.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1675,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a definitive agreement on the movie to show on Friday. Therefore, no further action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1697,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1716,13 +1719,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process has concluded without a choice for Friday’s movie.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1741,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/DD/judgement_logs_run4o.xlsx
+++ b/Warehouse/DD/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made, leading to no selection being finalized.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made about the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be played on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not select any movie for showing on Friday, as the committee could not reach a consensus.
+MSG: The decision about which movie to play on Friday has not been made.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has been recorded as no decision.
+MSG: The decision regarding which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not reach a consensus, so no movie has been selected for Friday.
+MSG: The decision has been recorded: there was no agreement on a movie to show on Friday, leading to a no decision outcome.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached during the meeting.
+MSG: The decision process has concluded without a definitive choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie selection was not finalized, so there will be no acquisition of rights for a movie at this time.
+MSG: The decision-making process concluded without a definitive choice for Friday's movie, resulting in no decision.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching an agreement on the movie for Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision about which movie to show on Friday.
+MSG: The decision about which movie to show on Friday has ended without a conclusion.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has not been made.
+MSG: The decision to acquire a movie for Friday has resulted in no decision made.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie for Friday.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday was not made.
+MSG: The committee did not reach a decision regarding which movie to show on Friday, so no acquisition will be made at this time.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was chosen for Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, and no movie was selected for Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday has not been made.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday. The committee will need to continue discussions to arrive at a consensus.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that the committee has not reached a decision about which movie to show on Friday. Therefore, I am submitting the no_decision function.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation did not result in a decision about which movie to show on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie for Friday was not made.
+MSG: The decision was made not to select a movie for Friday, and therefore no acquisition will take place.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie was made.
+MSG: The decision about Friday's movie has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of a movie can be made at this time.
+MSG: I have recorded the decision: there was no definitive choice for a movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The conversation ended without reaching a decision on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie can be made.
+MSG: The decision has been recorded as indicating that no movie was selected.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no conclusion, indicating that no selection was made during this discussion.
+MSG: The decision regarding which movie to show on Friday was not made, as both Barbara and Linda could not come to an agreement.
 </t>
         </is>
       </c>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision made by the committee was to select "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made during the discussion.
+MSG: The decision about which movie to show on Friday has resulted in no consensus.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be acquired for Friday.
+MSG: A decision has been made to not pursue any specific movie for Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has been deemed as no decision.
+MSG: The decision for the movie to be shown on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not reached, so no movie will be acquired.
+MSG: The decision regarding the movie for Friday was not finalized, so no choice has been made.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made, and no specific movie was chosen to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie for Friday, and thus, the function for no decision has been recorded.
+MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on which movie to show on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no_decision" since the committee did not arrive at a conclusion about which movie to show on Friday.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
+MSG: The decision not to select a movie has been recorded.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie to be shown on Friday, so I have recorded this as no decision being made.
+MSG: The decision about Friday's movie has not been made, so I will proceed with the no_decision function.
 </t>
         </is>
       </c>
@@ -1320,16 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems I made an error in interpreting the information provided. Since the committee decided on "Barbie" as the movie for Friday's showing, I will call the appropriate function for that decision. 
-```python
-Barbie_was_selected()
-```
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1345,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to not select a movie for Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1367,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a selection for Friday's movie, so the outcome is that no decision was made.
+MSG: The decision was made that no choice for Friday's movie could be finalized.
 </t>
         </is>
       </c>
@@ -1389,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no agreement on a movie for Friday.
+MSG: The decision regarding the movie for Friday has resulted in no consensus. Therefore, the function has been executed, indicating that no decision was made.
 </t>
         </is>
       </c>
@@ -1411,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The meeting concluded without a decision regarding which movie to show.
 </t>
         </is>
       </c>
@@ -1433,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision-making process ended without a conclusion about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1455,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not finalized, resulting in no decision being made.
+MSG: The decision has been recorded, indicating that no decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1477,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1499,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision concluded with no clear choice made for Friday's movie.
+MSG: The decision for Friday's movie resulted in no agreement, so no movie will be selected.
 </t>
         </is>
       </c>
@@ -1521,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1543,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not reach a conclusion about which movie to show on Friday, so the function for no decision has been executed.
+MSG: The decision process concluded without reaching a consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1565,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1587,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The rights to both movies "Oppenheimer" and "Barbie" have been acquired for showing.
 </t>
         </is>
       </c>
@@ -1603,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;29;21.json</t>
+          <t>./Warehouse/DD/run4o_discovery_08_11_2025 at_11;17;25.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without an agreement on which movie to show on Friday.
+MSG: The decision regarding Friday's movie remains unresolved, as the committee could not come to an agreement.
 </t>
         </is>
       </c>
@@ -1625,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;55;12.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;29;21.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and it appears that no movie was selected by the committee for Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1647,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;44;30.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;55;12.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee's discussion concluded without reaching a decision on the movie for Friday, so no acquisition will take place.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
@@ -1669,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;41;22.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;44;30.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a definitive agreement on the movie to show on Friday. Therefore, no further action will be taken regarding acquiring movie rights.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1691,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;52;56.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;41;22.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been recorded successfully.
+MSG: The decision regarding which movie to show on Friday has resulted in no definitive choice.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1713,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;47;16.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;52;56.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a choice for Friday’s movie.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1735,17 +1732,39 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;47;16.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and it reflects that the committee could not come to a consensus on a movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;58;03.json</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no decision" regarding which movie to show on Friday.
-</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to be shown on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>

--- a/Warehouse/DD/judgement_logs_run4o.xlsx
+++ b/Warehouse/DD/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;03;55.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;33;59.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The committee did not reach a decision regarding which movie will be shown on Friday. Therefore, it is necessary to call the no_decision function.
 </t>
         </is>
       </c>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;55;50.json</t>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;13;27.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie to show on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;49;07.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;03;55.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be played on Friday.
+MSG: The decision about the movie to be shown on Friday resulted in no consensus being reached.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;58;36.json</t>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;54;43.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday has not been made.
+MSG: The decision to show a movie on Friday was not reached, so no selection has been made.
 </t>
         </is>
       </c>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;38;13.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;55;50.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to show a movie on Friday could not be made, so I have recorded the outcome as no decision.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;38;44.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;49;07.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday remains unresolved.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;36;50.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;58;36.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: there was no agreement on a movie to show on Friday, leading to a no decision outcome.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;03;26.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;38;13.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a definitive choice for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;09;02.json</t>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;16;44.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a definitive choice for Friday's movie, resulting in no decision.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;04;49.json</t>
+          <t>./Warehouse/DD/run4o_08_12_2025 at_21;18;14.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision regarding which movie to show on Friday has not been made, leading to no acquisition decision.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;50;19.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;38;44.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision has been recorded, and no movie has been chosen for Friday.
 </t>
         </is>
       </c>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;41;27.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;28;06.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has ended without a conclusion.
+MSG: The decision has been recorded as no decision, indicating that the committee was unable to reach a consensus on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;44;54.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;29;38.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday has resulted in no decision made.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;35;42.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;36;50.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;01;12.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;03;26.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday, so no acquisition will be made at this time.
+MSG: The decision to show a movie on Friday has not been made, so no action will be taken at this time regarding movie acquisition.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;28;24.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;09;02.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
+MSG: The decision-making process did not lead to a clear choice for the movie to show on Friday, so no decision was made.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;56;36.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;04;49.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday.
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;43;02.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;50;19.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded, indicating that no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;37;59.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;41;27.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday. The committee will need to continue discussions to arrive at a consensus.
+MSG: I have recorded the decision as "no_decision." The committee has not reached a conclusion about which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;39;30.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;44;54.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: The decision about which movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;42;04.json</t>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;57;28.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;59;19.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;31;33.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made not to select a movie for Friday, and therefore no acquisition will take place.
+MSG: It seems there's no decision made about which movie to show on Friday. Therefore, I'm concluding with the no_decision function.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;37;29.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;35;42.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has been recorded as "no decision."
+MSG: The decision process concluded without a clear agreement on what movie to show on Friday. Therefore, no decision has been made.
 </t>
         </is>
       </c>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;45;34.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;37;29.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision: there was no definitive choice for a movie to be shown on Friday.
+MSG: The decision indicates that there was no consensus on which movie to select for Friday.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;07;43.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;01;12.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without reaching a decision on which movie to show on Friday.
+MSG: The decision has been documented as "no_decision." If you have any further instructions or questions, feel free to ask!
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;04;42.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;28;24.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as indicating that no movie was selected.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;30;34.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;23;41.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made, as both Barbara and Linda could not come to an agreement.
+MSG: I have recorded the decision as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;45;57.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;56;36.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday, indicating that the committee did not reach an agreement.
 </t>
         </is>
       </c>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;31;21.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;28;42.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no consensus.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;17;57.json</t>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;53;12.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: A decision has been made to not pursue any specific movie for Friday.
+MSG: The decision process concluded without a clear agreement on the movie choice for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1116,13 +1116,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;00;11.json</t>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;53;52.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the movie to be shown on Friday has resulted in no agreement.
+MSG: The decision has been registered with the `no_decision` function, indicating that no choice of a movie can be made at this time.
 </t>
         </is>
       </c>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;56;46.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;43;02.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday was not finalized, so no choice has been made.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;54;27.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;37;59.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been concluded without an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;59;36.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;36;45.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;40;24.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;23;04.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;02;01.json</t>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;17;53.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;06;24.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;39;30.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been made.
+MSG: The decision to show "Barbie" has been confirmed successfully.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;42;10.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;42;04.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision not to select a movie has been recorded.
+MSG: The decision has been noted as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1292,13 +1292,13 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;33;22.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;59;19.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has not been made, so I will proceed with the no_decision function.
+MSG: The decision about which movie to show on Friday was not reached, leading to a no decision outcome.
 </t>
         </is>
       </c>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;32;12.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;37;29.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;48;09.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;45;34.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+MSG: The decision on which movie to show on Friday was not made, leading to no selection being finalized.
 </t>
         </is>
       </c>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;34;15.json</t>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;16;03.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made that no choice for Friday's movie could be finalized.
+MSG: The decision has been recorded, and the movie "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;52;13.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;38;17.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no consensus. Therefore, the function has been executed, indicating that no decision was made.
+MSG: The decision was made that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;55;53.json</t>
+          <t>./Warehouse/DD/run4o_08_12_2025 at_21;17;33.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The meeting concluded without a decision regarding which movie to show.
+MSG: The decision was made that no movie will be shown this Friday.
 </t>
         </is>
       </c>
@@ -1424,13 +1424,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;51;15.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;07;43.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a conclusion about which movie to show on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;58;52.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;04;42.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no decision was made about which movie to show on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;39;53.json</t>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;34;42.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
+MSG: A decision was not reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;02;17.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;30;34.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie resulted in no agreement, so no movie will be selected.
+MSG: The decision has been recorded, confirming that no agreement was reached on the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;44;25.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;45;57.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights for "Barbie" have been acquired.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;57;33.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;31;21.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching a consensus on which movie to show on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;43;08.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;17;57.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie for Friday.
+MSG: The decision has been recorded, and it reflects that no choice of a movie was made for Friday.
 </t>
         </is>
       </c>
@@ -1578,19 +1578,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;01;27.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;00;11.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies "Oppenheimer" and "Barbie" have been acquired for showing.
+MSG: The decision has been recorded with no selection made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_08_11_2025 at_11;17;25.json</t>
+          <t>./Warehouse/DD/run4o_08_12_2025 at_21;20;51.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie remains unresolved, as the committee could not come to an agreement.
+MSG: The decision about which movie to show on Friday could not be reached in the discussion.
 </t>
         </is>
       </c>
@@ -1622,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;29;21.json</t>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;50;56.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision regarding the movie for Friday has not been made, and thus the conversation concluded without a clear choice.
 </t>
         </is>
       </c>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;55;12.json</t>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;56;46.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;44;30.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;54;27.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
+MSG: The decision to show both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1688,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;41;22.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;59;36.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no definitive choice.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1710,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;52;56.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;40;24.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process resulted in no agreement about which movie to show on Friday, leading to the conclusion of the discussion without a selected film.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;47;16.json</t>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;02;01.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and it reflects that the committee could not come to a consensus on a movie to show on Friday.
+MSG: The decision resulted in no movie being chosen for Friday, as the committee did not reach an agreement.
 </t>
         </is>
       </c>
@@ -1754,17 +1754,831 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;51;43.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday did not reach a mutual agreement, so no decision was made.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;55;08.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;06;24.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday remains unresolved, and no selection has been made.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;12;30.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for Friday's movie remains unresolved.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;39;08.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with the function indicating that no agreement was reached regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;42;10.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a definitive plan regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;33;22.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has not been made, so I will proceed with the no_decision function accordingly.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;32;12.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been successfully recorded as "Barbie" being selected for the meeting.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;48;09.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;34;15.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been executed, and no decision about the movie for Friday has been made.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;15;29.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;52;13.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no choice of a movie was made for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;55;53.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has been recorded as no decision made.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;51;15.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process has concluded without a definitive choice of movie for Friday. No movie has been selected at this time.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;14;46.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without selecting a movie for Friday, leading to no decision being made.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;58;52.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in any specific choice for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;39;53.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded with no definitive movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;11;20.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been successfully selected for acquisition.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_04;02;17.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected in this meeting.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;44;25.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;57;33.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;43;08.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process resulted in no decision regarding the movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;14;10.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to "Barbie" have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_15;01;27.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;52;27.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_11_2025 at_15;56;13.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_16_2025 at_14;17;14.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision concerning the movie to be shown on Friday was not reached.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;29;04.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights to show "Barbie".
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_08_11_2025 at_11;17;25.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not reached.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;29;21.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about the movie to be shown on Friday has been recorded as inconclusive.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;55;12.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show a movie on Friday was not reached, and thus no further action is required.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;44;30.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_05_02_2025 at_03;41;22.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no choice was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;35;47.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;52;56.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The movie "Barbie" has been successfully selected for the showing.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;47;16.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>./Warehouse/DD/run4o_discovery_04_28_2025 at_14;58;03.json</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has not been made.
-</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in an agreement about the movie to be shown on Friday, which is captured by the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/DD/run4o_08_13_2025 at_17;32;38.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without selecting a movie for Friday, leading to the outcome of no decision made.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
